--- a/biology/Histoire de la zoologie et de la botanique/Claude_B._Hutchison/Claude_B._Hutchison.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_B._Hutchison/Claude_B._Hutchison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Burton Hutchison, né le 9 avril 1885 dans le Missouri et mort le 25 août 1980, est un botaniste, économiste en agriculture, enseignant américain, qui fut maire de la ville de Berkeley, Californie entre 1955 et 1963.
 </t>
